--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="1018">
   <si>
     <t>anchor score</t>
   </si>
@@ -397,535 +397,535 @@
     <t>wish</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>producers</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>curb</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>producers</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>curb</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>remember</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
   </si>
   <si>
     <t>creative</t>
@@ -3433,10 +3433,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3615,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K5">
         <v>0.8983050847457628</v>
@@ -3815,7 +3815,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K9">
         <v>0.8110236220472441</v>
@@ -3865,7 +3865,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K10">
         <v>0.8076923076923077</v>
@@ -3915,7 +3915,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K11">
         <v>0.7872340425531915</v>
@@ -3965,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K12">
         <v>0.7579617834394905</v>
@@ -4015,7 +4015,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K13">
         <v>0.7301587301587301</v>
@@ -4065,7 +4065,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K14">
         <v>0.6842105263157895</v>
@@ -4315,28 +4315,28 @@
         <v>152</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
       <c r="K19">
-        <v>0.6437768240343348</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L19">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4365,16 +4365,16 @@
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K20">
-        <v>0.6388888888888888</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4465,7 +4465,7 @@
         <v>9</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K22">
         <v>0.6170212765957447</v>
@@ -4515,7 +4515,7 @@
         <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K23">
         <v>0.6</v>
@@ -4615,7 +4615,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K25">
         <v>0.5714285714285714</v>
@@ -4665,7 +4665,7 @@
         <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K26">
         <v>0.5555555555555556</v>
@@ -4715,7 +4715,7 @@
         <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K27">
         <v>0.5555555555555556</v>
@@ -4765,28 +4765,28 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="K28">
-        <v>0.5443425076452599</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L28">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="N28">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>149</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4818,13 +4818,13 @@
         <v>303</v>
       </c>
       <c r="K29">
-        <v>0.5384615384615384</v>
+        <v>0.5235294117647059</v>
       </c>
       <c r="L29">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4965,7 +4965,7 @@
         <v>19</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K32">
         <v>0.4942528735632184</v>
@@ -5015,7 +5015,7 @@
         <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K33">
         <v>0.492063492063492</v>
@@ -5065,7 +5065,7 @@
         <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K34">
         <v>0.4722955145118733</v>
@@ -5115,7 +5115,7 @@
         <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K35">
         <v>0.4626865671641791</v>
@@ -5265,7 +5265,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K38">
         <v>0.4413793103448276</v>
@@ -6715,7 +6715,7 @@
         <v>23</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K67">
         <v>0.3095238095238095</v>
@@ -6815,7 +6815,7 @@
         <v>12</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K69">
         <v>0.3043478260869565</v>
@@ -6865,7 +6865,7 @@
         <v>6</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K70">
         <v>0.2962962962962963</v>
@@ -7415,7 +7415,7 @@
         <v>48</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K81">
         <v>0.28125</v>
@@ -7815,7 +7815,7 @@
         <v>15</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K89">
         <v>0.2666666666666667</v>
@@ -8365,7 +8365,7 @@
         <v>9</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K100">
         <v>0.2380952380952381</v>
@@ -8465,7 +8465,7 @@
         <v>28</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K102">
         <v>0.2361111111111111</v>
@@ -8665,7 +8665,7 @@
         <v>10</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K106">
         <v>0.2307692307692308</v>
@@ -8865,7 +8865,7 @@
         <v>10</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K110">
         <v>0.2291666666666667</v>
@@ -9065,7 +9065,7 @@
         <v>31</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K114">
         <v>0.2258064516129032</v>
@@ -9165,7 +9165,7 @@
         <v>11</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K116">
         <v>0.2240963855421687</v>
@@ -9444,25 +9444,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.08024691358024691</v>
+        <v>0.08</v>
       </c>
       <c r="C122">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="E122">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="F122">
-        <v>0.06999999999999995</v>
+        <v>0.18</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>370</v>
@@ -9494,28 +9494,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.08</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D123">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E123">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K123">
         <v>0.2216981132075472</v>
@@ -9544,13 +9544,13 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.07894736842105263</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -9562,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>371</v>
@@ -9594,13 +9594,13 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.07792207792207792</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -9612,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>372</v>
@@ -9647,22 +9647,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>373</v>
@@ -9697,22 +9697,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F127">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>374</v>
@@ -9747,22 +9747,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E128">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="F128">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>375</v>
@@ -9797,25 +9797,25 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E129">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="F129">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K129">
         <v>0.2115384615384615</v>
@@ -9847,22 +9847,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E130">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F130">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>376</v>
@@ -9897,22 +9897,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E131">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="F131">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>377</v>
@@ -9944,28 +9944,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D132">
         <v>3</v>
       </c>
       <c r="E132">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K132">
         <v>0.2101910828025478</v>
@@ -9994,25 +9994,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.075</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C133">
         <v>3</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>378</v>
@@ -10044,25 +10044,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
         <v>3</v>
       </c>
-      <c r="D134">
-        <v>122</v>
-      </c>
       <c r="E134">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F134">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>379</v>
@@ -10150,13 +10150,13 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F136">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
@@ -10247,22 +10247,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="E138">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F138">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>382</v>
@@ -10297,22 +10297,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>383</v>
@@ -10344,7 +10344,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10362,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>384</v>
@@ -10394,25 +10394,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.06741573033707865</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C141">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>385</v>
@@ -10494,7 +10494,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>387</v>
@@ -10544,7 +10544,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10562,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>388</v>
@@ -10694,7 +10694,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>391</v>
@@ -10744,25 +10744,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>392</v>
@@ -10800,16 +10800,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>16</v>
@@ -10847,22 +10847,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F150">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>394</v>
@@ -10900,13 +10900,13 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E151">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F151">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -10944,25 +10944,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>396</v>
@@ -10994,25 +10994,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>397</v>
@@ -11044,13 +11044,13 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>398</v>
@@ -11094,7 +11094,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>399</v>
@@ -11144,13 +11144,13 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>400</v>
@@ -11200,16 +11200,16 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
         <v>18</v>
@@ -11250,16 +11250,16 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
         <v>18</v>
@@ -11300,16 +11300,16 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>18</v>
@@ -11344,25 +11344,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>404</v>
@@ -11394,7 +11394,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11412,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>405</v>
@@ -11444,25 +11444,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>406</v>
@@ -11494,25 +11494,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>407</v>
@@ -11544,25 +11544,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F164">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>408</v>
@@ -11594,25 +11594,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F165">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>409</v>
@@ -11644,13 +11644,13 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E166">
         <v>0.67</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>410</v>
@@ -11694,25 +11694,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>411</v>
@@ -11744,28 +11744,28 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F168">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K168">
         <v>0.1742424242424243</v>
@@ -11794,25 +11794,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>412</v>
@@ -11850,13 +11850,13 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E170">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F170">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
@@ -11897,25 +11897,25 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K171">
         <v>0.1739130434782609</v>
@@ -11950,16 +11950,16 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>22</v>
@@ -11994,28 +11994,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K173">
         <v>0.1708860759493671</v>
@@ -12044,28 +12044,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K174">
         <v>0.1666666666666667</v>
@@ -12097,10 +12097,10 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E175">
         <v>0.5</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>114</v>
@@ -12144,25 +12144,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.04166666666666666</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E176">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>415</v>
@@ -12194,25 +12194,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="E177">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F177">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>416</v>
@@ -12244,13 +12244,13 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.04026845637583892</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C178">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -12262,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>417</v>
@@ -12294,25 +12294,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F179">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>418</v>
@@ -12344,25 +12344,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03846153846153846</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>419</v>
@@ -12394,25 +12394,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>420</v>
@@ -12444,25 +12444,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03773584905660377</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>421</v>
@@ -12494,7 +12494,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12512,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>422</v>
@@ -12650,16 +12650,16 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
         <v>27</v>
@@ -12700,16 +12700,16 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
         <v>27</v>
@@ -12744,25 +12744,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>427</v>
@@ -12794,25 +12794,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E189">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F189">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>428</v>
@@ -12844,25 +12844,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>429</v>
@@ -12894,25 +12894,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E191">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F191">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>430</v>
@@ -12944,25 +12944,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03225806451612903</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E192">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F192">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>431</v>
@@ -12994,25 +12994,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03225806451612903</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D193">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E193">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="F193">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>432</v>
@@ -13044,25 +13044,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03174603174603174</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D194">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="E194">
-        <v>0.6</v>
+        <v>0.96</v>
       </c>
       <c r="F194">
-        <v>0.4</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>433</v>
@@ -13094,25 +13094,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.03092783505154639</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>434</v>
@@ -13144,25 +13144,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02994011976047904</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
         <v>5</v>
       </c>
-      <c r="D196">
-        <v>133</v>
-      </c>
       <c r="E196">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F196">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>435</v>
@@ -13194,25 +13194,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>436</v>
@@ -13250,16 +13250,16 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>34</v>
@@ -13294,25 +13294,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E199">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>438</v>
@@ -13344,7 +13344,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13362,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>439</v>
@@ -13394,25 +13394,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>440</v>
@@ -13444,7 +13444,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>441</v>
@@ -13494,25 +13494,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E203">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F203">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>442</v>
@@ -13544,25 +13544,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>443</v>
@@ -13594,25 +13594,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E205">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F205">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>444</v>
@@ -13644,25 +13644,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E206">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>445</v>
@@ -13694,28 +13694,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K207">
         <v>0.1646489104116223</v>
@@ -13744,13 +13744,13 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -13762,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>446</v>
@@ -13794,13 +13794,13 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.025</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -13812,10 +13812,10 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K209">
         <v>0.162962962962963</v>
@@ -13844,25 +13844,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02439024390243903</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>447</v>
@@ -13894,25 +13894,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02409638554216868</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C211">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>448</v>
@@ -13944,25 +13944,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02409638554216868</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E212">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F212">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>449</v>
@@ -13994,25 +13994,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F213">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>450</v>
@@ -14044,25 +14044,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>451</v>
@@ -14100,13 +14100,13 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E215">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F215">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
@@ -14115,7 +14115,7 @@
         <v>42</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K215">
         <v>0.1578947368421053</v>
@@ -14144,25 +14144,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02325581395348837</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>452</v>
@@ -14194,25 +14194,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02325581395348837</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E217">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F217">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>453</v>
@@ -14244,25 +14244,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02083333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E218">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F218">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>454</v>
@@ -14294,25 +14294,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E219">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="F219">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>455</v>
@@ -14344,28 +14344,28 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E220">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F220">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K220">
         <v>0.1547987616099071</v>
@@ -14394,25 +14394,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D221">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="E221">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="F221">
-        <v>0.18</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>456</v>
@@ -14444,7 +14444,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14462,7 +14462,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>457</v>
@@ -14494,25 +14494,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0196078431372549</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C223">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="E223">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F223">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>7</v>
@@ -14544,25 +14544,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01923076923076923</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="E224">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F224">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>458</v>
@@ -14594,25 +14594,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>459</v>
@@ -14644,25 +14644,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01818181818181818</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E226">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F226">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>460</v>
@@ -14694,25 +14694,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>461</v>
@@ -14744,28 +14744,28 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01801801801801802</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E228">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F228">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K228">
         <v>0.15</v>
@@ -14797,25 +14797,25 @@
         <v>0.01785714285714286</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D229">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E229">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F229">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K229">
         <v>0.1495327102803738</v>
@@ -14844,28 +14844,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E230">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F230">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K230">
         <v>0.1473684210526316</v>
@@ -14894,25 +14894,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E231">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F231">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>462</v>
@@ -14944,25 +14944,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01754385964912281</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E232">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F232">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>463</v>
@@ -14994,25 +14994,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E233">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F233">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>464</v>
@@ -15044,25 +15044,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01739130434782609</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>465</v>
@@ -15094,25 +15094,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E235">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F235">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>466</v>
@@ -15144,25 +15144,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>467</v>
@@ -15194,25 +15194,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E237">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F237">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>468</v>
@@ -15244,25 +15244,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01612903225806452</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E238">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F238">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>469</v>
@@ -15294,25 +15294,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01612903225806452</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E239">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F239">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>470</v>
@@ -15344,25 +15344,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01587301587301587</v>
+        <v>0.015625</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
       <c r="D240">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E240">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="F240">
-        <v>0.06000000000000005</v>
+        <v>0.18</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>471</v>
@@ -15394,25 +15394,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01587301587301587</v>
+        <v>0.01444043321299639</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D241">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="E241">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F241">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>62</v>
+        <v>273</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>472</v>
@@ -15444,25 +15444,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.015625</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E242">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="F242">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>473</v>
@@ -15494,25 +15494,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01444043321299639</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C243">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E243">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F243">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>273</v>
+        <v>70</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>474</v>
@@ -15544,25 +15544,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01408450704225352</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E244">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F244">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>475</v>
@@ -15594,25 +15594,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01408450704225352</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E245">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F245">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>476</v>
@@ -15650,13 +15650,13 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E246">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F246">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
@@ -15665,7 +15665,7 @@
         <v>74</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K246">
         <v>0.1428571428571428</v>
@@ -15694,25 +15694,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01333333333333333</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E247">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F247">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>477</v>
@@ -15744,25 +15744,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01333333333333333</v>
+        <v>0.0125</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E248">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F248">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>478</v>
@@ -15794,25 +15794,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01298701298701299</v>
+        <v>0.0125</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E249">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F249">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>479</v>
@@ -15844,25 +15844,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0125</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E250">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F250">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>480</v>
@@ -15894,25 +15894,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0125</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>481</v>
@@ -15944,28 +15944,28 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01234567901234568</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E252">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F252">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K252">
         <v>0.1428571428571428</v>
@@ -15994,25 +15994,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01111111111111111</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>482</v>
@@ -16044,25 +16044,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01020408163265306</v>
+        <v>0.01</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E254">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F254">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>483</v>
@@ -16094,25 +16094,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0101010101010101</v>
+        <v>0.009646302250803859</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D255">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E255">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F255">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>484</v>
@@ -16144,25 +16144,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E256">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F256">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>485</v>
@@ -16194,25 +16194,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.009646302250803859</v>
+        <v>0.009541984732824428</v>
       </c>
       <c r="C257">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D257">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E257">
-        <v>0.93</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F257">
-        <v>0.06999999999999995</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>308</v>
+        <v>519</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>486</v>
@@ -16244,25 +16244,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.009615384615384616</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D258">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E258">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F258">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>487</v>
@@ -16294,25 +16294,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.009541984732824428</v>
+        <v>0.009230769230769232</v>
       </c>
       <c r="C259">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D259">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E259">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="F259">
-        <v>0.1899999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>519</v>
+        <v>322</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>488</v>
@@ -16344,25 +16344,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.009302325581395349</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E260">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F260">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>489</v>
@@ -16394,28 +16394,28 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.009230769230769232</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="E261">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F261">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>322</v>
+        <v>112</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K261">
         <v>0.1428571428571428</v>
@@ -16444,13 +16444,13 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.009009009009009009</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D262">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E262">
         <v>0.96</v>
@@ -16462,7 +16462,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>110</v>
+        <v>345</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>490</v>
@@ -16494,25 +16494,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.008849557522123894</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E263">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F263">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>491</v>
@@ -16544,25 +16544,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.008620689655172414</v>
+        <v>0.008483563096500531</v>
       </c>
       <c r="C264">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D264">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E264">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="F264">
-        <v>0.04000000000000004</v>
+        <v>0.24</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>345</v>
+        <v>935</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>492</v>
@@ -16594,25 +16594,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.008620689655172414</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E265">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F265">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>493</v>
@@ -16644,25 +16644,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.008483563096500531</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C266">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E266">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="F266">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H266">
-        <v>935</v>
+        <v>250</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>494</v>
@@ -16694,25 +16694,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.008403361344537815</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E267">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F267">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>495</v>
@@ -16744,25 +16744,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.007936507936507936</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F268">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>496</v>
@@ -16794,28 +16794,28 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.007575757575757576</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E269">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F269">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K269">
         <v>0.1408450704225352</v>
@@ -16844,25 +16844,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.007575757575757576</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E270">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F270">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>497</v>
@@ -16894,25 +16894,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.007092198581560284</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E271">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F271">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>498</v>
@@ -16944,25 +16944,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.006578947368421052</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E272">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F272">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>499</v>
@@ -16994,28 +16994,28 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.006289308176100629</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E273">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F273">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K273">
         <v>0.1363636363636364</v>
@@ -17044,25 +17044,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.005882352941176471</v>
+        <v>0.005361930294906166</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E274">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F274">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H274">
-        <v>169</v>
+        <v>371</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>500</v>
@@ -17094,25 +17094,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.00546448087431694</v>
+        <v>0.005254860746190226</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D275">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="E275">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F275">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>182</v>
+        <v>1893</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>501</v>
@@ -17144,25 +17144,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.005361930294906166</v>
+        <v>0.005063291139240506</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>356</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H276">
-        <v>371</v>
+        <v>2751</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>502</v>
@@ -17194,28 +17194,28 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.005254860746190226</v>
+        <v>0.005033557046979865</v>
       </c>
       <c r="C277">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D277">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="E277">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F277">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>1893</v>
+        <v>593</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K277">
         <v>0.1333333333333333</v>
@@ -17244,13 +17244,13 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.005063291139240506</v>
+        <v>0.005018820577164366</v>
       </c>
       <c r="C278">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D278">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="E278">
         <v>0.96</v>
@@ -17262,10 +17262,10 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>2751</v>
+        <v>793</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K278">
         <v>0.1333333333333333</v>
@@ -17294,25 +17294,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.005033557046979865</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="C279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E279">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F279">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>593</v>
+        <v>215</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>503</v>
@@ -17344,25 +17344,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.005018820577164366</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C280">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="E280">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F280">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>793</v>
+        <v>233</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>504</v>
@@ -17394,25 +17394,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.004629629629629629</v>
+        <v>0.003787878787878788</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D281">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E281">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F281">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>215</v>
+        <v>789</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>505</v>
@@ -17444,25 +17444,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.004273504273504274</v>
+        <v>0.003673094582185491</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D282">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="E282">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F282">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>233</v>
+        <v>1085</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>506</v>
@@ -17494,28 +17494,28 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.003787878787878788</v>
+        <v>0.003653271338425772</v>
       </c>
       <c r="C283">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D283">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="E283">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F283">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>789</v>
+        <v>3000</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K283">
         <v>0.1332586786114222</v>
@@ -17544,25 +17544,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.003673094582185491</v>
+        <v>0.002898550724637681</v>
       </c>
       <c r="C284">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="E284">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F284">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>1085</v>
+        <v>344</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>507</v>
@@ -17594,25 +17594,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.003653271338425772</v>
+        <v>0.001886792452830189</v>
       </c>
       <c r="C285">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="E285">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F285">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>3000</v>
+        <v>529</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>508</v>
@@ -17644,25 +17644,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.002898550724637681</v>
+        <v>0.001290322580645161</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="E286">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F286">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>344</v>
+        <v>774</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>509</v>
@@ -17690,30 +17690,6 @@
       </c>
     </row>
     <row r="287" spans="1:17">
-      <c r="A287" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B287">
-        <v>0.001886792452830189</v>
-      </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287">
-        <v>38</v>
-      </c>
-      <c r="E287">
-        <v>0.97</v>
-      </c>
-      <c r="F287">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287">
-        <v>529</v>
-      </c>
       <c r="J287" s="1" t="s">
         <v>510</v>
       </c>
@@ -17740,32 +17716,8 @@
       </c>
     </row>
     <row r="288" spans="1:17">
-      <c r="A288" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B288">
-        <v>0.001290322580645161</v>
-      </c>
-      <c r="C288">
-        <v>1</v>
-      </c>
-      <c r="D288">
-        <v>120</v>
-      </c>
-      <c r="E288">
-        <v>0.99</v>
-      </c>
-      <c r="F288">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288">
-        <v>774</v>
-      </c>
       <c r="J288" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K288">
         <v>0.1271186440677966</v>
@@ -17791,7 +17743,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K289">
         <v>0.1261261261261261</v>
@@ -18883,7 +18835,7 @@
     </row>
     <row r="331" spans="10:17">
       <c r="J331" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K331">
         <v>0.119047619047619</v>
@@ -19195,7 +19147,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K343">
         <v>0.1159420289855072</v>
@@ -19221,7 +19173,7 @@
     </row>
     <row r="344" spans="10:17">
       <c r="J344" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K344">
         <v>0.1153846153846154</v>
@@ -19273,7 +19225,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K346">
         <v>0.1125175808720112</v>
@@ -19377,7 +19329,7 @@
     </row>
     <row r="350" spans="10:17">
       <c r="J350" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K350">
         <v>0.1111111111111111</v>
@@ -19403,7 +19355,7 @@
     </row>
     <row r="351" spans="10:17">
       <c r="J351" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K351">
         <v>0.1111111111111111</v>
@@ -20027,7 +19979,7 @@
     </row>
     <row r="375" spans="10:17">
       <c r="J375" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K375">
         <v>0.1105722599418041</v>
@@ -20053,7 +20005,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K376">
         <v>0.1098265895953757</v>
@@ -20209,7 +20161,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K382">
         <v>0.1063829787234043</v>
@@ -20235,7 +20187,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K383">
         <v>0.1060606060606061</v>
@@ -20287,7 +20239,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K385">
         <v>0.1052631578947368</v>
@@ -20417,7 +20369,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K390">
         <v>0.1025641025641026</v>
@@ -20469,7 +20421,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K392">
         <v>0.1022727272727273</v>
@@ -21431,7 +21383,7 @@
     </row>
     <row r="429" spans="10:17">
       <c r="J429" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K429">
         <v>0.09677419354838709</v>
@@ -21457,7 +21409,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K430">
         <v>0.09677419354838709</v>
@@ -21613,7 +21565,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K436">
         <v>0.09361702127659574</v>
@@ -21691,7 +21643,7 @@
     </row>
     <row r="439" spans="10:17">
       <c r="J439" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K439">
         <v>0.09090909090909091</v>
@@ -21717,7 +21669,7 @@
     </row>
     <row r="440" spans="10:17">
       <c r="J440" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K440">
         <v>0.09090909090909091</v>
@@ -21873,7 +21825,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K446">
         <v>0.09090909090909091</v>
@@ -22107,7 +22059,7 @@
     </row>
     <row r="455" spans="10:17">
       <c r="J455" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K455">
         <v>0.09090909090909091</v>
@@ -22549,7 +22501,7 @@
     </row>
     <row r="472" spans="10:17">
       <c r="J472" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K472">
         <v>0.08928571428571429</v>
@@ -22627,7 +22579,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K475">
         <v>0.08695652173913043</v>
@@ -22731,7 +22683,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K479">
         <v>0.08695652173913043</v>
@@ -22783,7 +22735,7 @@
     </row>
     <row r="481" spans="10:17">
       <c r="J481" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K481">
         <v>0.08680555555555555</v>
@@ -22835,7 +22787,7 @@
     </row>
     <row r="483" spans="10:17">
       <c r="J483" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K483">
         <v>0.08411214953271028</v>
@@ -22861,7 +22813,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K484">
         <v>0.08346213292117466</v>
@@ -23069,7 +23021,7 @@
     </row>
     <row r="492" spans="10:17">
       <c r="J492" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K492">
         <v>0.08333333333333333</v>
@@ -23537,7 +23489,7 @@
     </row>
     <row r="510" spans="10:17">
       <c r="J510" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K510">
         <v>0.08152173913043478</v>
@@ -23615,7 +23567,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K513">
         <v>0.08064516129032258</v>
@@ -23719,7 +23671,7 @@
     </row>
     <row r="517" spans="10:17">
       <c r="J517" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K517">
         <v>0.08</v>
@@ -23745,7 +23697,7 @@
     </row>
     <row r="518" spans="10:17">
       <c r="J518" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K518">
         <v>0.07926829268292683</v>
@@ -24057,7 +24009,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K530">
         <v>0.07692307692307693</v>
@@ -24317,7 +24269,7 @@
     </row>
     <row r="540" spans="10:17">
       <c r="J540" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K540">
         <v>0.07692307692307693</v>
@@ -24473,7 +24425,7 @@
     </row>
     <row r="546" spans="10:17">
       <c r="J546" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K546">
         <v>0.07547169811320754</v>
@@ -24733,7 +24685,7 @@
     </row>
     <row r="556" spans="10:17">
       <c r="J556" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K556">
         <v>0.07142857142857142</v>
@@ -24837,7 +24789,7 @@
     </row>
     <row r="560" spans="10:17">
       <c r="J560" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K560">
         <v>0.07142857142857142</v>
@@ -25331,7 +25283,7 @@
     </row>
     <row r="579" spans="10:17">
       <c r="J579" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K579">
         <v>0.07017543859649122</v>
@@ -25617,7 +25569,7 @@
     </row>
     <row r="590" spans="10:17">
       <c r="J590" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K590">
         <v>0.06666666666666667</v>
@@ -25643,7 +25595,7 @@
     </row>
     <row r="591" spans="10:17">
       <c r="J591" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K591">
         <v>0.06666666666666667</v>
@@ -25669,7 +25621,7 @@
     </row>
     <row r="592" spans="10:17">
       <c r="J592" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K592">
         <v>0.06666666666666667</v>
@@ -26085,7 +26037,7 @@
     </row>
     <row r="608" spans="10:17">
       <c r="J608" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K608">
         <v>0.06537102473498234</v>
@@ -26215,7 +26167,7 @@
     </row>
     <row r="613" spans="10:17">
       <c r="J613" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K613">
         <v>0.06329113924050633</v>
@@ -26605,7 +26557,7 @@
     </row>
     <row r="628" spans="10:17">
       <c r="J628" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K628">
         <v>0.06222990492653414</v>
@@ -26631,7 +26583,7 @@
     </row>
     <row r="629" spans="10:17">
       <c r="J629" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K629">
         <v>0.06172839506172839</v>
@@ -26683,7 +26635,7 @@
     </row>
     <row r="631" spans="10:17">
       <c r="J631" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K631">
         <v>0.06153846153846154</v>
@@ -26891,7 +26843,7 @@
     </row>
     <row r="639" spans="10:17">
       <c r="J639" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K639">
         <v>0.05956112852664577</v>
@@ -27333,7 +27285,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K656">
         <v>0.05555555555555555</v>
@@ -28061,7 +28013,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K684">
         <v>0.05172413793103448</v>
@@ -28477,7 +28429,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K700">
         <v>0.04867256637168142</v>
@@ -28529,7 +28481,7 @@
     </row>
     <row r="702" spans="10:17">
       <c r="J702" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K702">
         <v>0.04838709677419355</v>
@@ -28555,7 +28507,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K703">
         <v>0.04819277108433735</v>
@@ -28893,7 +28845,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K716">
         <v>0.046875</v>
@@ -28945,7 +28897,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K718">
         <v>0.04615384615384616</v>
@@ -29101,7 +29053,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K724">
         <v>0.04545454545454546</v>
@@ -29283,7 +29235,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K731">
         <v>0.04379562043795621</v>
@@ -29309,7 +29261,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K732">
         <v>0.04347826086956522</v>
@@ -29569,7 +29521,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K742">
         <v>0.04242424242424243</v>
@@ -29595,7 +29547,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K743">
         <v>0.04178272980501393</v>
@@ -29621,7 +29573,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K744">
         <v>0.04166666666666666</v>
@@ -29647,7 +29599,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K745">
         <v>0.04166666666666666</v>
@@ -29829,7 +29781,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K752">
         <v>0.04081632653061224</v>
@@ -29855,7 +29807,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K753">
         <v>0.04081632653061224</v>
@@ -30063,7 +30015,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K761">
         <v>0.03888888888888889</v>
@@ -30089,7 +30041,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K762">
         <v>0.03846153846153846</v>
@@ -30479,7 +30431,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K777">
         <v>0.03571428571428571</v>
@@ -30531,7 +30483,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K779">
         <v>0.03571428571428571</v>
@@ -31337,7 +31289,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K810">
         <v>0.02777777777777778</v>
@@ -31675,7 +31627,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K823">
         <v>0.02604166666666667</v>
@@ -31961,7 +31913,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K834">
         <v>0.02380952380952381</v>
@@ -32299,7 +32251,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K847">
         <v>0.02040816326530612</v>
@@ -32351,7 +32303,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K849">
         <v>0.02</v>
@@ -32741,7 +32693,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K864">
         <v>0.01333333333333333</v>
@@ -32793,7 +32745,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K866">
         <v>0.01234567901234568</v>
@@ -32923,7 +32875,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K871">
         <v>0.008510638297872341</v>
